--- a/SubRES_TMPL/SubRes_ELC.xlsx
+++ b/SubRES_TMPL/SubRes_ELC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C428840-49EA-4C71-AEB6-A0426808D55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F297EE0-0E04-4FC7-BC38-C87AE993B332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,6 @@
     <sheet name="ELC_EGP" sheetId="16" r:id="rId1"/>
     <sheet name="ELC_CCS" sheetId="18" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -2228,8 +2222,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3042,13 +3036,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3058,22 +3052,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3151,9 +3145,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3172,8 +3166,8 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3201,8 +3195,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3309,141 +3303,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10907,21 +10766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
     <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
@@ -11100,24 +10944,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2081B585-D9F5-409F-9C58-1AAF8BF71650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851BA114-00C8-4AA6-82E9-E7B647F44889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F686AAB-D1BF-4DFE-9F49-6F6D04D4E193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11134,4 +10976,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851BA114-00C8-4AA6-82E9-E7B647F44889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2081B585-D9F5-409F-9C58-1AAF8BF71650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>